--- a/PastaDocumentos/Orcamento.xlsx
+++ b/PastaDocumentos/Orcamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Downloads\ExemploGitFlow\TesteGITHUB\PastaDocumentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F04B02-C4AE-495A-AFD6-F3AA6BF3BA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5C7A8F-EFA8-42CF-9A5A-A1753C6CF98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,16 +64,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -81,17 +108,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="60% - Accent1" xfId="4" builtinId="32"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -373,44 +450,59 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>120000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>34000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>